--- a/data/trans_dic/P16A12-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A12-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,17%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>2,37; 7,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>3,98; 10,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>7,71; 14,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>2,01; 7,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,74; 6,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,67; 10,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,65; 6,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,59; 7,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>7,28; 11,25</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,44%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>3,57; 7,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>4,66; 9,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>4,92; 9,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>4,78; 9,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>5,71; 10,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>8,3; 13,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>7,67; 13,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>6,02; 9,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,18; 8,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,3; 11,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,94; 10,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>6,15; 9,03</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,97%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>2,97; 7,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>7,25; 14,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,7; 6,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>9,03; 14,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>4,85; 10,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>7,3; 14,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>3,93; 9,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>8,32; 13,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>4,66; 8,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>8,18; 12,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,77; 7,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>9,19; 12,94</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,44%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>3,09; 7,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,58; 8,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>9,03; 15,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>6,36; 12,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>3,02; 7,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,71; 9,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>4,55; 9,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,88; 8,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,54; 6,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>5,62; 8,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>7,62; 11,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>6,06; 9,27</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,21%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>2,58; 8,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>5,21; 13,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>3,43; 9,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>7,05; 13,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>5,14; 13,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>7,93; 16,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>5,94; 13,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>9,5; 14,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,65; 9,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>7,67; 13,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>5,41; 10,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>9,02; 13,46</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,57%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>3,27; 9,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>4,1; 10,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>4,23; 9,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>11,7; 18,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,52; 6,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>7,18; 14,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>3,81; 10,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>8,22; 13,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,84; 6,59</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>6,26; 11,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>4,63; 8,86</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>10,65; 14,71</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,17; 9,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>6,18; 10,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>8,37; 13,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>6,57; 10,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,69; 8,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>6,23; 10,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,8; 10,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,1; 6,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>5,29; 7,93</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,75; 9,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>7,79; 11,13</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,93; 7,91</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,34; 7,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>4,55; 8,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>7,24; 10,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>4,7; 7,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,04; 7,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>3,97; 7,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>6,93; 11,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,64; 7,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,69; 7,01</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,81; 7,18</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>7,52; 10,36</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,08; 7,31</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,01%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,83; 6,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,37; 8,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,44; 9,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,92; 9,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,24; 6,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,53; 9,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,92; 8,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>6,5; 8,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,3; 6,44</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,27; 8,57</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,46; 8,73</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>7,36; 8,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A12-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>8,65%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,98; 10,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,71; 14,42</t>
+          <t>6,95; 13,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,23; 10,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,01</t>
+          <t>5,49; 9,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,42; 8,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,25</t>
+          <t>6,89; 10,76</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,17%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,49</t>
+          <t>4,5; 9,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 9,9</t>
+          <t>5,92; 9,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,03</t>
+          <t>5,91; 8,8</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>10,79%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 14,88</t>
+          <t>8,8; 14,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,32; 13,03</t>
+          <t>8,24; 12,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 12,94</t>
+          <t>9,04; 12,76</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,66%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,59</t>
+          <t>3,84; 8,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 12,04</t>
+          <t>6,11; 11,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,69</t>
+          <t>5,71; 11,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,45</t>
+          <t>3,15; 7,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,48</t>
+          <t>5,33; 9,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 9,27</t>
+          <t>4,88; 8,54</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,26%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,05; 13,86</t>
+          <t>7,12; 13,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,9</t>
+          <t>9,6; 15,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,02; 13,46</t>
+          <t>9,08; 13,49</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>12,48%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,7; 18,05</t>
+          <t>11,5; 17,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,22; 13,49</t>
+          <t>8,23; 13,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,65; 14,71</t>
+          <t>10,59; 14,61</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>5,89%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,57; 10,69</t>
+          <t>6,3; 10,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,49</t>
+          <t>1,77; 6,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,93; 7,91</t>
+          <t>3,78; 7,49</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>5,45%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,7; 7,96</t>
+          <t>2,34; 7,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,24</t>
+          <t>4,72; 7,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,08; 7,31</t>
+          <t>3,41; 6,86</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>7,53%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,92; 9,77</t>
+          <t>6,29; 9,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,5; 8,04</t>
+          <t>5,78; 7,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,54</t>
+          <t>6,56; 8,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A12-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,08</t>
+          <t>2,42; 7,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 10,29</t>
+          <t>4,01; 10,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 10,36</t>
+          <t>4,07; 9,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 13,36</t>
+          <t>7,23; 13,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 7,18</t>
+          <t>1,96; 6,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 10,15</t>
+          <t>4,04; 10,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,28</t>
+          <t>1,84; 6,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 9,62</t>
+          <t>5,47; 9,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,16</t>
+          <t>2,84; 6,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,87</t>
+          <t>4,74; 9,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,37</t>
+          <t>3,47; 7,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,89; 10,76</t>
+          <t>6,87; 10,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,82</t>
+          <t>3,65; 7,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,38</t>
+          <t>4,87; 9,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,36</t>
+          <t>4,81; 9,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 9,07</t>
+          <t>4,53; 9,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,71; 10,51</t>
+          <t>5,95; 10,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,3; 13,82</t>
+          <t>8,52; 14,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,67; 13,22</t>
+          <t>8,1; 13,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 9,68</t>
+          <t>5,92; 9,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,44</t>
+          <t>5,18; 8,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,01</t>
+          <t>7,35; 11,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,59</t>
+          <t>6,94; 10,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,8</t>
+          <t>5,83; 8,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,4</t>
+          <t>2,98; 7,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 14,28</t>
+          <t>6,83; 14,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,71</t>
+          <t>2,55; 6,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,54</t>
+          <t>8,68; 14,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 10,61</t>
+          <t>4,93; 10,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 14,38</t>
+          <t>7,1; 14,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 9,43</t>
+          <t>3,96; 9,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,24; 12,9</t>
+          <t>8,01; 12,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,14</t>
+          <t>4,34; 8,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,18; 12,97</t>
+          <t>8,27; 13,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,26</t>
+          <t>3,83; 7,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 12,76</t>
+          <t>9,1; 12,92</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,66</t>
+          <t>3,11; 7,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,64</t>
+          <t>3,75; 8,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,03; 15,78</t>
+          <t>9,35; 16,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,74</t>
+          <t>6,19; 11,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 7,13</t>
+          <t>3,02; 7,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,24</t>
+          <t>5,65; 11,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 9,65</t>
+          <t>4,41; 9,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,38</t>
+          <t>3,31; 7,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,69</t>
+          <t>3,66; 6,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,16</t>
+          <t>5,35; 9,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 11,96</t>
+          <t>7,49; 11,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,54</t>
+          <t>4,77; 8,38</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,4</t>
+          <t>2,55; 7,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 13,38</t>
+          <t>5,35; 13,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,87</t>
+          <t>3,61; 10,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 13,9</t>
+          <t>7,17; 13,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 13,67</t>
+          <t>5,14; 13,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,93; 16,68</t>
+          <t>7,86; 17,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 13,71</t>
+          <t>6,27; 13,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,6; 15,05</t>
+          <t>9,53; 15,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,59</t>
+          <t>4,54; 9,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,67; 13,52</t>
+          <t>7,67; 13,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,51</t>
+          <t>5,67; 10,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,08; 13,49</t>
+          <t>9,33; 13,55</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,27; 9,22</t>
+          <t>3,28; 8,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,1; 10,3</t>
+          <t>4,41; 10,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,88</t>
+          <t>4,02; 9,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,5; 17,74</t>
+          <t>11,4; 17,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,13</t>
+          <t>1,84; 6,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,18; 14,87</t>
+          <t>7,17; 14,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 10,63</t>
+          <t>3,87; 10,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,23; 13,49</t>
+          <t>8,17; 13,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,59</t>
+          <t>2,93; 6,44</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,26; 11,34</t>
+          <t>6,46; 11,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,86</t>
+          <t>4,74; 9,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,59; 14,61</t>
+          <t>10,6; 14,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,09</t>
+          <t>4,92; 8,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,52</t>
+          <t>6,11; 10,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,36</t>
+          <t>8,47; 13,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,3; 10,3</t>
+          <t>6,23; 10,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,57</t>
+          <t>4,65; 8,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,23; 10,35</t>
+          <t>6,27; 10,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,8; 10,35</t>
+          <t>5,92; 10,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,2</t>
+          <t>2,04; 6,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,29; 7,93</t>
+          <t>5,33; 8,03</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,75; 9,73</t>
+          <t>6,62; 9,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,79; 11,13</t>
+          <t>7,73; 11,19</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,49</t>
+          <t>3,75; 7,35</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,8</t>
+          <t>4,34; 7,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,24</t>
+          <t>4,6; 8,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,94</t>
+          <t>7,14; 11,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,35</t>
+          <t>2,13; 7,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,49</t>
+          <t>4,06; 7,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,19</t>
+          <t>4,04; 7,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,93; 11,24</t>
+          <t>6,78; 11,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,37</t>
+          <t>4,84; 7,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,01</t>
+          <t>4,65; 7,02</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,18</t>
+          <t>4,76; 7,22</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,52; 10,36</t>
+          <t>7,36; 10,47</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,86</t>
+          <t>3,36; 6,76</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,4</t>
+          <t>4,85; 6,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,37; 8,25</t>
+          <t>6,41; 8,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,44; 9,24</t>
+          <t>7,46; 9,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,2</t>
+          <t>6,44; 9,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,24; 6,85</t>
+          <t>5,26; 7,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,53; 9,37</t>
+          <t>7,59; 9,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,92; 8,9</t>
+          <t>6,94; 8,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,74</t>
+          <t>5,55; 7,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,3; 6,44</t>
+          <t>5,24; 6,38</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>7,27; 8,57</t>
+          <t>7,21; 8,6</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7,46; 8,73</t>
+          <t>7,46; 8,77</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,56; 8,21</t>
+          <t>6,61; 8,28</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11954</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19210</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19095</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30724</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10516</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18450</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10529</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>21291</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22470</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>37659</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>29624</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>52016</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6620; 19204</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11727; 29953</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11963; 28680</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22525; 41628</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5125; 17671</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11373; 28506</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5306; 18020</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15845; 27993</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15149; 34103</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27164; 52431</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20238; 42188</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>41306; 63817</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>26796</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34903</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>34226</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>34421</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>40028</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>57594</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>54198</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>39507</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>66824</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>92497</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>88424</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>73929</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17983; 39399</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24634; 49046</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24185; 47247</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23418; 47115</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29962; 54669</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>44553; 73786</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42365; 72297</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>30410; 49516</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>51653; 83861</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>75545; 114816</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>71193; 109963</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>60161; 90234</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15217</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33437</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13591</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>35790</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>24829</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>35128</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21093</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>36002</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>40047</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>68565</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>34684</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>71792</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9512; 25166</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22073; 45981</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8139; 21309</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27419; 45498</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16549; 34864</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24214; 48953</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13305; 33038</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27968; 45281</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28377; 53560</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>54913; 86660</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25065; 49211</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>60563; 85972</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18332</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22420</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>45807</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>26774</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17492</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31623</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25987</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25724</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>35825</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>54042</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>71794</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>52498</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11140; 27329</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14007; 33165</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>34586; 60561</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>19347; 36856</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11235; 27720</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21916; 43537</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17062; 37035</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15750; 35863</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>26730; 48449</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>40794; 70258</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>56681; 90240</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>37596; 66024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9684</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18939</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13041</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18245</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>18317</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25856</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20570</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25384</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28001</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>44795</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>33611</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>43629</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5192; 16070</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11376; 28926</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7628; 21777</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12820; 24812</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10680; 27958</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>17267; 37346</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13708; 30417</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>19884; 31345</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18669; 39153</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>33140; 58779</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>24360; 45661</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>36163; 52497</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>15295</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>18480</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>17229</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>38642</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9535</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>29538</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18366</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>27066</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>24830</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>48018</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>35595</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>65709</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8890; 24229</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12082; 28091</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>10576; 25768</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>30741; 48063</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5106; 17437</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20024; 40791</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>10560; 28618</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>20994; 33619</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>16098; 35358</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>35722; 61275</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>25405; 49775</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>55846; 77244</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>41554</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>54327</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>71120</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>50799</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>41035</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>56478</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>54454</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>35959</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>82589</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>110805</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>125573</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>86759</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>30265; 54839</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>40479; 69868</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>55588; 91110</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>38909; 64723</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>29655; 54619</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>43522; 73221</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>40946; 69877</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>17320; 51013</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>66785; 100646</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>89874; 130696</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>104249; 150812</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>55232; 108317</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>44195</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>48354</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>69698</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>46712</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>43462</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>45320</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>72746</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>42783</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>87658</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>93675</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>142444</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>89495</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>32209; 57167</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>35711; 63823</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>55618; 86808</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>19822; 68854</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>31778; 58941</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>33153; 60403</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>56049; 91430</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>34568; 52996</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>71041; 107119</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>76110; 115413</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>118067; 167963</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>55288; 111144</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>183028</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>250071</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>283807</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>282108</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>205215</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>299986</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>277943</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>253717</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>388244</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>550056</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>561750</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>535825</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>158970; 209442</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>219446; 282832</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>253157; 316850</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>222751; 319679</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>177613; 237097</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>269319; 335355</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>246106; 313433</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>203062; 280081</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>349023; 424353</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>502682; 599412</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>517317; 608821</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>470477; 588927</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>